--- a/biology/Botanique/Hypnum/Hypnum.xlsx
+++ b/biology/Botanique/Hypnum/Hypnum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypnum est un genre de mousses de la famille des Hypnaceae, dont il est le genre type. Il comprend plusieurs centaines d'espèces réparties dans le monde entier. Hypnum cupressiforme est l'espèce type.
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Hypnum viendrait du grec hypnos, sommeil, le botaniste Dillenius donnant en 1741 les raisons de cette étymologie : jadis, elle servait au remplissage de matelas ou d'oreiller, et cette mousse aurait des propriétés soporifiques. En réalité, les grecs donnaient le nom d‘hupnon à des mousses poussant sur les arbres, d'où le nom du genre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Hypnum viendrait du grec hypnos, sommeil, le botaniste Dillenius donnant en 1741 les raisons de cette étymologie : jadis, elle servait au remplissage de matelas ou d'oreiller, et cette mousse aurait des propriétés soporifiques. En réalité, les grecs donnaient le nom d‘hupnon à des mousses poussant sur les arbres, d'où le nom du genre.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des mousses petites à grandes, en touffes ou non, jaunâtres, vertes ou brunes, brillantes ou ternes. Leurs tiges sont rampantes à dressées, à une ou deux pennes ou irrégulièrement ramifiées ; le hyaloderme et le brin central sont présents ou absents ; la pseudoparaphylie est filamenteuse à foliacée. Les feuilles de la tige et du rameau sont semblables, sécantes ou falciformes-sécantes, ovales larges à étroites, non à fortement plissées ; la base est décurrente ou non ; les bords sont parfois recourbés à la base, généralement plans à la distale, sinués à entiers à la proximale, dentés à entiers à la distale ; l'apex est acuminé ou aigu ; le costa (côte longitudinale) est double ou obscur, mesurant généralement jusqu'à un quart de la longueur de la feuille. Les cellules alaires sont souvent différenciées, quadrangulaires, subquadrangulaires, triangulaires ou hexagonales ; les cellules laminales sont lisses[2].
-Appareil reproducteur
-Il n'y a pas de reproduction asexuée spécialisée. La condition sexuelle est autoïque, dioïque ou phyllodioïque ; les feuilles périchétiales externes sont réfléchies, les feuilles internes sont dressées, ovales à lancéolées ou subulées, l'apex finement acuminé. Le fruit est une capsule érigée, inclinée ou horizontale, longue et cylindrique à ovoïde, généralement incurvée et contractée sous l'ouverture ; l'opercule est conique à arrondi-mammillaire ; le péristome est double ; les dents de l'exostome sont avec une surface externe avec ligne en zigzag distincte et les lamelles, finement striées transversalement à la base, hyalines et papilleuses à la base. La membrane basale de l'endostome est haute, les segments environ aussi hauts que les dents, carénés, les cils sont de un à trois, ou parfois rudimentaires. Le calyptra est nu. Les spores sont rondes, lisses ou finement papilleuses[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des mousses petites à grandes, en touffes ou non, jaunâtres, vertes ou brunes, brillantes ou ternes. Leurs tiges sont rampantes à dressées, à une ou deux pennes ou irrégulièrement ramifiées ; le hyaloderme et le brin central sont présents ou absents ; la pseudoparaphylie est filamenteuse à foliacée. Les feuilles de la tige et du rameau sont semblables, sécantes ou falciformes-sécantes, ovales larges à étroites, non à fortement plissées ; la base est décurrente ou non ; les bords sont parfois recourbés à la base, généralement plans à la distale, sinués à entiers à la proximale, dentés à entiers à la distale ; l'apex est acuminé ou aigu ; le costa (côte longitudinale) est double ou obscur, mesurant généralement jusqu'à un quart de la longueur de la feuille. Les cellules alaires sont souvent différenciées, quadrangulaires, subquadrangulaires, triangulaires ou hexagonales ; les cellules laminales sont lisses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypnum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypnum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de reproduction asexuée spécialisée. La condition sexuelle est autoïque, dioïque ou phyllodioïque ; les feuilles périchétiales externes sont réfléchies, les feuilles internes sont dressées, ovales à lancéolées ou subulées, l'apex finement acuminé. Le fruit est une capsule érigée, inclinée ou horizontale, longue et cylindrique à ovoïde, généralement incurvée et contractée sous l'ouverture ; l'opercule est conique à arrondi-mammillaire ; le péristome est double ; les dents de l'exostome sont avec une surface externe avec ligne en zigzag distincte et les lamelles, finement striées transversalement à la base, hyalines et papilleuses à la base. La membrane basale de l'endostome est haute, les segments environ aussi hauts que les dents, carénés, les cils sont de un à trois, ou parfois rudimentaires. Le calyptra est nu. Les spores sont rondes, lisses ou finement papilleuses.
 			Fruits de Hypnum pallescens.
 			Hypnum recurvatum.
 			Hypnum vaucheri.
@@ -556,33 +610,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hypnum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypnum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (26 mai 2021)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (26 mai 2021) :
 Hypnum acanthoneuron Schwägr.
 Hypnum acanthophyllum Mont.
 Hypnum accacioides (Schrad.) L. ex Turner
@@ -1277,46 +1333,48 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Hypnum</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypnum</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres, sous-genres et sections suivants pourraient être synonymes de Hypnum :
 Breidleria Loeske
-Cupressina (Müll. Hal.) Müll. Hal.[4]
-Cupressina J.K.A.Müller, 1896[3]
-Cupressina Müll.Hal.[3]
-Drepanium (Schimp.) Lange &amp; C.E.O. Jensen[4]
-Drepanium subg. Stereodon (Brid.) G. Roth[4]
-Eurohypnum Ando[4]
-Hypnum sect. Breidleria (Loeske) Mönk.[4]
-Hypnum subg. Breidleria (Loeske) Doign. &amp; Guillaumot[4]
-Hypnum subg. Stereodon Brid.[4]
-Luida Adans. ex Léman[4]
-Pseudostereodon (Broth.) M. Fleisch.[4]
-Stereodon (Brid.) Brid.[4]
+Cupressina (Müll. Hal.) Müll. Hal.
+Cupressina J.K.A.Müller, 1896
+Cupressina Müll.Hal.
+Drepanium (Schimp.) Lange &amp; C.E.O. Jensen
+Drepanium subg. Stereodon (Brid.) G. Roth
+Eurohypnum Ando
+Hypnum sect. Breidleria (Loeske) Mönk.
+Hypnum subg. Breidleria (Loeske) Doign. &amp; Guillaumot
+Hypnum subg. Stereodon Brid.
+Luida Adans. ex Léman
+Pseudostereodon (Broth.) M. Fleisch.
+Stereodon (Brid.) Brid.
 </t>
         </is>
       </c>
